--- a/resource/北京昌平库位命名规则定义--0926(2).xlsx
+++ b/resource/北京昌平库位命名规则定义--0926(2).xlsx
@@ -18,6 +18,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="436">
   <si>
     <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>货位编码设计共</t>
     </r>
     <r>
@@ -41,6 +47,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>2位占位符+位存放区编码</t>
     </r>
     <r>
@@ -1454,8 +1467,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1562,15 +1575,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,37 +1593,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1647,7 +1623,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1660,24 +1674,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,6 +1692,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1786,7 +1799,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1798,67 +1943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,7 +1955,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,85 +1973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2032,11 +2045,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2046,6 +2065,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,32 +2108,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2098,8 +2122,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2118,27 +2142,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2147,133 +2160,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2831,8 +2844,8 @@
   <sheetPr/>
   <dimension ref="A1:AC126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7348,7 +7361,7 @@
         <v>30200001.04</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" ref="R45:R72" si="3">T11&amp;N11</f>
+        <f t="shared" ref="R45:R75" si="3">T11&amp;N11</f>
         <v>L020200001.01</v>
       </c>
       <c r="S45" t="str">
@@ -8294,7 +8307,7 @@
     </row>
     <row r="73" spans="18:22">
       <c r="R73" t="str">
-        <f>T39&amp;N39</f>
+        <f t="shared" si="3"/>
         <v>L020200008.01</v>
       </c>
       <c r="S73" t="str">
@@ -8316,7 +8329,7 @@
     </row>
     <row r="74" spans="18:22">
       <c r="R74" t="str">
-        <f>T40&amp;N40</f>
+        <f t="shared" si="3"/>
         <v>L020300008.01</v>
       </c>
       <c r="S74" t="str">
@@ -8338,7 +8351,7 @@
     </row>
     <row r="75" spans="18:22">
       <c r="R75" t="str">
-        <f>T41&amp;N41</f>
+        <f t="shared" si="3"/>
         <v>L020400008.01</v>
       </c>
       <c r="S75" t="str">
